--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Col4a1-Cd93.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Col4a1-Cd93.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>179.1580256666667</v>
+        <v>93.39526366666666</v>
       </c>
       <c r="H2">
-        <v>537.4740770000001</v>
+        <v>280.185791</v>
       </c>
       <c r="I2">
-        <v>0.3468013736386751</v>
+        <v>0.2167755775732346</v>
       </c>
       <c r="J2">
-        <v>0.3468013736386751</v>
+        <v>0.2167755775732346</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>124.722578</v>
+        <v>91.51130433333333</v>
       </c>
       <c r="N2">
-        <v>374.167734</v>
+        <v>274.533913</v>
       </c>
       <c r="O2">
-        <v>0.9767311432246923</v>
+        <v>0.9685519820468944</v>
       </c>
       <c r="P2">
-        <v>0.9767311432246923</v>
+        <v>0.9685519820468945</v>
       </c>
       <c r="Q2">
-        <v>22345.05083053684</v>
+        <v>8546.722396692241</v>
       </c>
       <c r="R2">
-        <v>201105.4574748315</v>
+        <v>76920.50157023018</v>
       </c>
       <c r="S2">
-        <v>0.3387317021459968</v>
+        <v>0.2099584153179167</v>
       </c>
       <c r="T2">
-        <v>0.3387317021459968</v>
+        <v>0.2099584153179167</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>179.1580256666667</v>
+        <v>93.39526366666666</v>
       </c>
       <c r="H3">
-        <v>537.4740770000001</v>
+        <v>280.185791</v>
       </c>
       <c r="I3">
-        <v>0.3468013736386751</v>
+        <v>0.2167755775732346</v>
       </c>
       <c r="J3">
-        <v>0.3468013736386751</v>
+        <v>0.2167755775732346</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -620,22 +620,22 @@
         <v>0.404136</v>
       </c>
       <c r="O3">
-        <v>0.001054960600366076</v>
+        <v>0.001425786415744213</v>
       </c>
       <c r="P3">
-        <v>0.001054960600366076</v>
+        <v>0.001425786415744214</v>
       </c>
       <c r="Q3">
-        <v>24.134735953608</v>
+        <v>12.581462759064</v>
       </c>
       <c r="R3">
-        <v>217.212623582472</v>
+        <v>113.233164831576</v>
       </c>
       <c r="S3">
-        <v>0.0003658617853416366</v>
+        <v>0.0003090756737690238</v>
       </c>
       <c r="T3">
-        <v>0.0003658617853416365</v>
+        <v>0.0003090756737690239</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>179.1580256666667</v>
+        <v>93.39526366666666</v>
       </c>
       <c r="H4">
-        <v>537.4740770000001</v>
+        <v>280.185791</v>
       </c>
       <c r="I4">
-        <v>0.3468013736386751</v>
+        <v>0.2167755775732346</v>
       </c>
       <c r="J4">
-        <v>0.3468013736386751</v>
+        <v>0.2167755775732346</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.836578333333334</v>
+        <v>2.836578333333333</v>
       </c>
       <c r="N4">
-        <v>8.509735000000001</v>
+        <v>8.509734999999999</v>
       </c>
       <c r="O4">
-        <v>0.02221389617494163</v>
+        <v>0.03002223153736139</v>
       </c>
       <c r="P4">
-        <v>0.02221389617494163</v>
+        <v>0.03002223153736139</v>
       </c>
       <c r="Q4">
-        <v>508.1957738488441</v>
+        <v>264.9229813528206</v>
       </c>
       <c r="R4">
-        <v>4573.761964639596</v>
+        <v>2384.306832175385</v>
       </c>
       <c r="S4">
-        <v>0.007703809707336669</v>
+        <v>0.006508086581548896</v>
       </c>
       <c r="T4">
-        <v>0.007703809707336669</v>
+        <v>0.006508086581548895</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>719.421996</v>
       </c>
       <c r="I5">
-        <v>0.4642019905988459</v>
+        <v>0.5566060939249745</v>
       </c>
       <c r="J5">
-        <v>0.4642019905988459</v>
+        <v>0.5566060939249745</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>124.722578</v>
+        <v>91.51130433333333</v>
       </c>
       <c r="N5">
-        <v>374.167734</v>
+        <v>274.533913</v>
       </c>
       <c r="O5">
-        <v>0.9767311432246923</v>
+        <v>0.9685519820468944</v>
       </c>
       <c r="P5">
-        <v>0.9767311432246923</v>
+        <v>0.9685519820468945</v>
       </c>
       <c r="Q5">
-        <v>29909.3886703419</v>
+        <v>21945.0817400167</v>
       </c>
       <c r="R5">
-        <v>269184.498033077</v>
+        <v>197505.7356601504</v>
       </c>
       <c r="S5">
-        <v>0.4534005409647887</v>
+        <v>0.539101935490414</v>
       </c>
       <c r="T5">
-        <v>0.4534005409647887</v>
+        <v>0.539101935490414</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>719.421996</v>
       </c>
       <c r="I6">
-        <v>0.4642019905988459</v>
+        <v>0.5566060939249745</v>
       </c>
       <c r="J6">
-        <v>0.4642019905988459</v>
+        <v>0.5566060939249745</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -806,10 +806,10 @@
         <v>0.404136</v>
       </c>
       <c r="O6">
-        <v>0.001054960600366076</v>
+        <v>0.001425786415744213</v>
       </c>
       <c r="P6">
-        <v>0.001054960600366076</v>
+        <v>0.001425786415744214</v>
       </c>
       <c r="Q6">
         <v>32.304925308384</v>
@@ -818,10 +818,10 @@
         <v>290.744327775456</v>
       </c>
       <c r="S6">
-        <v>0.0004897148106932861</v>
+        <v>0.0007936014076386764</v>
       </c>
       <c r="T6">
-        <v>0.0004897148106932861</v>
+        <v>0.0007936014076386765</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>719.421996</v>
       </c>
       <c r="I7">
-        <v>0.4642019905988459</v>
+        <v>0.5566060939249745</v>
       </c>
       <c r="J7">
-        <v>0.4642019905988459</v>
+        <v>0.5566060939249745</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.836578333333334</v>
+        <v>2.836578333333333</v>
       </c>
       <c r="N7">
-        <v>8.509735000000001</v>
+        <v>8.509734999999999</v>
       </c>
       <c r="O7">
-        <v>0.02221389617494163</v>
+        <v>0.03002223153736139</v>
       </c>
       <c r="P7">
-        <v>0.02221389617494163</v>
+        <v>0.03002223153736139</v>
       </c>
       <c r="Q7">
-        <v>680.2322821256735</v>
+        <v>680.2322821256734</v>
       </c>
       <c r="R7">
-        <v>6122.090539131061</v>
+        <v>6122.09053913106</v>
       </c>
       <c r="S7">
-        <v>0.01031173482336399</v>
+        <v>0.01671055702692191</v>
       </c>
       <c r="T7">
-        <v>0.010311734823364</v>
+        <v>0.01671055702692191</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>292.907699</v>
       </c>
       <c r="I8">
-        <v>0.1889966357624789</v>
+        <v>0.226618328501791</v>
       </c>
       <c r="J8">
-        <v>0.1889966357624789</v>
+        <v>0.2266183285017909</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>124.722578</v>
+        <v>91.51130433333333</v>
       </c>
       <c r="N8">
-        <v>374.167734</v>
+        <v>274.533913</v>
       </c>
       <c r="O8">
-        <v>0.9767311432246923</v>
+        <v>0.9685519820468944</v>
       </c>
       <c r="P8">
-        <v>0.9767311432246923</v>
+        <v>0.9685519820468945</v>
       </c>
       <c r="Q8">
-        <v>12177.40111177601</v>
+        <v>8934.788528255131</v>
       </c>
       <c r="R8">
-        <v>109596.6100059841</v>
+        <v>80413.09675429617</v>
       </c>
       <c r="S8">
-        <v>0.1845989001139068</v>
+        <v>0.2194916312385639</v>
       </c>
       <c r="T8">
-        <v>0.1845989001139068</v>
+        <v>0.2194916312385639</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>292.907699</v>
       </c>
       <c r="I9">
-        <v>0.1889966357624789</v>
+        <v>0.226618328501791</v>
       </c>
       <c r="J9">
-        <v>0.1889966357624789</v>
+        <v>0.2266183285017909</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -992,10 +992,10 @@
         <v>0.404136</v>
       </c>
       <c r="O9">
-        <v>0.001054960600366076</v>
+        <v>0.001425786415744213</v>
       </c>
       <c r="P9">
-        <v>0.001054960600366076</v>
+        <v>0.001425786415744214</v>
       </c>
       <c r="Q9">
         <v>13.152727315896</v>
@@ -1004,10 +1004,10 @@
         <v>118.374545843064</v>
       </c>
       <c r="S9">
-        <v>0.0001993840043311534</v>
+        <v>0.0003231093343365133</v>
       </c>
       <c r="T9">
-        <v>0.0001993840043311534</v>
+        <v>0.0003231093343365133</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>292.907699</v>
       </c>
       <c r="I10">
-        <v>0.1889966357624789</v>
+        <v>0.226618328501791</v>
       </c>
       <c r="J10">
-        <v>0.1889966357624789</v>
+        <v>0.2266183285017909</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,16 +1048,16 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.836578333333334</v>
+        <v>2.836578333333333</v>
       </c>
       <c r="N10">
-        <v>8.509735000000001</v>
+        <v>8.509734999999999</v>
       </c>
       <c r="O10">
-        <v>0.02221389617494163</v>
+        <v>0.03002223153736139</v>
       </c>
       <c r="P10">
-        <v>0.02221389617494163</v>
+        <v>0.03002223153736139</v>
       </c>
       <c r="Q10">
         <v>276.9518775499739</v>
@@ -1066,10 +1066,10 @@
         <v>2492.566897949765</v>
       </c>
       <c r="S10">
-        <v>0.004198351644240967</v>
+        <v>0.006803587928890594</v>
       </c>
       <c r="T10">
-        <v>0.004198351644240968</v>
+        <v>0.006803587928890593</v>
       </c>
     </row>
   </sheetData>
